--- a/docs/ArchiX_Is_Listesi_Guncel_Final.xlsx
+++ b/docs/ArchiX_Is_Listesi_Guncel_Final.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\ArchiX\notlarim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FDD2A5-822D-4029-B0E5-B78D20A5C070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C1A0AE-652D-469A-908C-F9DE811A7496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proje İş Adımları Listesi" sheetId="1" r:id="rId1"/>
     <sheet name="Unit Tests" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Proje İş Adımları Listesi'!$A$1:$N$60</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="308">
   <si>
     <t>Is Sırası</t>
   </si>
@@ -732,9 +735,6 @@
     <t>tests/ArchiXTests.Common/*.cs</t>
   </si>
   <si>
-    <t>tests/ArchiXTests.Common/Localization/*.cs</t>
-  </si>
-  <si>
     <t>tests/ArchiXTests.Api/ErrorHandlingTests.cs</t>
   </si>
   <si>
@@ -747,9 +747,6 @@
     <t>Should_Return_Success(), Should_Return_Failure(), Should_Set_Code(), Should_Generate_Id(), Throws_OnNull(), Should_Return_UtcNow()</t>
   </si>
   <si>
-    <t>Should_Translate_Fields(), Should_Translate_Operators()</t>
-  </si>
-  <si>
     <t>Should_Log_Exception_As_JSON(), Should_Return_500_On_Exception()</t>
   </si>
   <si>
@@ -958,6 +955,12 @@
   </si>
   <si>
     <t>GridFiltering_SeedAndBehavior_Tests</t>
+  </si>
+  <si>
+    <t>Test Tarihi</t>
+  </si>
+  <si>
+    <t>DiagnosticsTests/LanguageServiceTests.cs</t>
   </si>
 </sst>
 </file>
@@ -992,7 +995,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1015,15 +1018,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1042,11 +1138,344 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1057,6 +1486,35 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DB96453-3CB8-41CB-B41F-EA582BBF39F4}" name="Tablo1" displayName="Tablo1" ref="A1:N60" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:N60" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2--05"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{F02C07A1-48DE-4C0F-BA3B-E120C9CC9D0B}" name="Is Sırası" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{1F239FDD-31B7-4C2E-A1DA-9D2AE2F49A42}" name="Kalınan Tarih" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{C11DB269-201C-4070-98E5-A9A6259AEB3D}" name="Kalınan Not" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{CC871394-61B4-48DF-A545-D1C597CAAFF5}" name="Bölüm" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{23F4E011-DBF6-4088-980B-9D30BFE753CB}" name="Alt Bölüm" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{74B69B50-D7CF-4DE9-83CE-F366ECC92454}" name="Durum" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{7ACF4AD9-884A-482E-80EE-627CEEE7D5F1}" name="Testleri Tamam mı" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{A2BC51F1-5D05-4069-9952-2FAAB123B0AB}" name="Test Tarihi" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{BFF5E396-2DCA-4A07-9BC7-AEB3CD437AF5}" name="Açıklama" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{DE105273-F44E-4597-B032-AF8B9E89BD30}" name="Source" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{72F19AA3-1511-4C4B-8ACC-304102926F04}" name="Source-Methods" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{9534FC4D-E85D-43AD-804C-0E8DA9EB859D}" name="Test Source" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{8F654C54-DC89-413D-9234-F8F69E10486D}" name="Test Source-Methods" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{39884AFB-C942-46D9-A44E-C9312D6B205C}" name="Kalınan Not2" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1346,1201 +1804,1700 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="91" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="115.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="35.109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="31.5546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="42.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="37" style="5" customWidth="1"/>
+    <col min="13" max="13" width="28.21875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="34.77734375" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H7" s="6">
+        <v>45910</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="H2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G8" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="H3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I3" t="s">
-        <v>215</v>
-      </c>
-      <c r="J3" t="s">
-        <v>224</v>
-      </c>
-      <c r="K3" t="s">
-        <v>231</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G22" s="3"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H5" t="s">
-        <v>159</v>
-      </c>
-      <c r="M5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I7" t="s">
-        <v>216</v>
-      </c>
-      <c r="J7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L7" t="s">
-        <v>237</v>
-      </c>
-      <c r="M7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" t="s">
-        <v>299</v>
-      </c>
-      <c r="H8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I8" t="s">
-        <v>217</v>
-      </c>
-      <c r="J8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" t="s">
-        <v>301</v>
-      </c>
-      <c r="H11" t="s">
-        <v>165</v>
-      </c>
-      <c r="I11" t="s">
-        <v>218</v>
-      </c>
-      <c r="J11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" t="s">
-        <v>153</v>
-      </c>
-      <c r="H12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" t="s">
-        <v>302</v>
-      </c>
-      <c r="H14" t="s">
-        <v>168</v>
-      </c>
-      <c r="I14" t="s">
-        <v>219</v>
-      </c>
-      <c r="J14" t="s">
-        <v>228</v>
-      </c>
-      <c r="K14" t="s">
-        <v>233</v>
-      </c>
-      <c r="L14" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" t="s">
-        <v>300</v>
-      </c>
-      <c r="F15" t="s">
-        <v>152</v>
-      </c>
-      <c r="H15" t="s">
-        <v>169</v>
-      </c>
-      <c r="I15" t="s">
-        <v>220</v>
-      </c>
-      <c r="J15" t="s">
-        <v>229</v>
-      </c>
-      <c r="K15" t="s">
-        <v>234</v>
-      </c>
-      <c r="L15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" t="s">
-        <v>170</v>
-      </c>
-      <c r="I16" t="s">
-        <v>221</v>
-      </c>
-      <c r="J16" t="s">
-        <v>230</v>
-      </c>
-      <c r="K16" t="s">
-        <v>235</v>
-      </c>
-      <c r="L16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" t="s">
-        <v>153</v>
-      </c>
-      <c r="H18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" t="s">
-        <v>153</v>
-      </c>
-      <c r="H19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" t="s">
-        <v>153</v>
-      </c>
-      <c r="H20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" t="s">
-        <v>152</v>
-      </c>
-      <c r="G21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H21" t="s">
-        <v>175</v>
-      </c>
-      <c r="I21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" t="s">
-        <v>153</v>
-      </c>
-      <c r="H23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" t="s">
-        <v>178</v>
-      </c>
-      <c r="I24" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E26" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" t="s">
-        <v>153</v>
-      </c>
-      <c r="H26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F27" t="s">
-        <v>153</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="F27" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D28" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F28" t="s">
-        <v>153</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="F28" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D29" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F29" t="s">
-        <v>153</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="F29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D30" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F30" t="s">
-        <v>153</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="F30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D31" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F31" t="s">
-        <v>153</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="F31" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D32" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F32" t="s">
-        <v>153</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="F32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D33" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F33" t="s">
-        <v>153</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="F33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D34" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F34" t="s">
-        <v>153</v>
-      </c>
-      <c r="H34" t="s">
+      <c r="F34" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D35" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F35" t="s">
-        <v>153</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="F35" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D36" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F36" t="s">
-        <v>153</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="F36" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D37" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F37" t="s">
-        <v>153</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="F37" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D38" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F38" t="s">
-        <v>153</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="F38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D39" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F39" t="s">
-        <v>153</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="F39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D40" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F40" t="s">
-        <v>153</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="F40" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D41" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F41" t="s">
-        <v>153</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="F41" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D42" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F42" t="s">
-        <v>153</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="F42" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="11"/>
+    </row>
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D43" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F43" t="s">
-        <v>153</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="F43" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="11"/>
+    </row>
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D44" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F44" t="s">
-        <v>153</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="F44" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="11"/>
+    </row>
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D45" t="s">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F45" t="s">
-        <v>153</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="F45" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="11"/>
+    </row>
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D46" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F46" t="s">
-        <v>153</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="F46" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="11"/>
+    </row>
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D47" t="s">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F47" t="s">
-        <v>153</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="F47" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="11"/>
+    </row>
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D48" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F48" t="s">
-        <v>153</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="F48" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="11"/>
+    </row>
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D49" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F49" t="s">
-        <v>153</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="F49" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="11"/>
+    </row>
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D50" t="s">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F50" t="s">
-        <v>153</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="F50" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="11"/>
+    </row>
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D51" t="s">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F51" t="s">
-        <v>153</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="F51" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D52" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F52" t="s">
-        <v>153</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="F52" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="11"/>
+    </row>
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D53" t="s">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F53" t="s">
-        <v>153</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="F53" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D54" t="s">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F54" t="s">
-        <v>153</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="F54" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="11"/>
+    </row>
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D55" t="s">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F55" t="s">
-        <v>153</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="F55" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="11"/>
+    </row>
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D56" t="s">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F56" t="s">
-        <v>153</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="F56" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="11"/>
+    </row>
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D57" t="s">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F57" t="s">
-        <v>153</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="F57" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="11"/>
+    </row>
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D58" t="s">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F58" t="s">
-        <v>153</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="F58" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="11"/>
+    </row>
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D59" t="s">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F59" t="s">
-        <v>153</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="F59" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="11"/>
+    </row>
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D60" t="s">
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="F60" t="s">
-        <v>153</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="F60" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G60" s="13"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="13" t="s">
         <v>214</v>
       </c>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2548,451 +3505,451 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="9.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" style="6" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="6"/>
-    <col min="8" max="8" width="19.21875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="39.44140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="9.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="5" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="5"/>
+    <col min="8" max="8" width="19.21875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="39.44140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="4">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="K6" s="4">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="D9" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="I9" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="I10" t="s">
+        <v>302</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="6">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="I11" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="6">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="I12" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="6">
+        <v>45909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="E13" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="K6" s="5">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="4">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="4">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="4">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I10" t="s">
-        <v>304</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="7">
-        <v>45909</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="4">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="7">
-        <v>45909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="4">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="7">
-        <v>45909</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="4">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="7">
+      <c r="J13" s="3"/>
+      <c r="K13" s="6">
         <v>45909</v>
       </c>
     </row>
